--- a/privacy_policy_counter.xlsx
+++ b/privacy_policy_counter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Desktop\CDK\privacy_policy_counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC9F67-6F3E-4014-B464-81CD6FDA517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDE5C1-F4BA-4B62-B43D-D03994AF54E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{301B7B71-B7E9-4C3F-9C79-9DEDFE4FAE7E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="20127"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/privacy_policy_counter.xlsx
+++ b/privacy_policy_counter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Desktop\CDK\privacy_policy_counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DDE5C1-F4BA-4B62-B43D-D03994AF54E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EAC40-DCF4-46A3-B9A4-49FAD9D97CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{301B7B71-B7E9-4C3F-9C79-9DEDFE4FAE7E}"/>
   </bookViews>
@@ -35,29 +35,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>제1조(개인정보의 처리 목적)</t>
   </si>
   <si>
-    <t>1. 재화 또는 서비스 제공</t>
-  </si>
-  <si>
-    <t>서비스 제공을 목적으로 개인정보를 처리합니다.</t>
-  </si>
-  <si>
     <t>제2조(개인정보의 처리 및 보유 기간)</t>
   </si>
   <si>
     <t>② 각각의 개인정보 처리 및 보유 기간은 다음과 같습니다.</t>
   </si>
   <si>
-    <t>보유근거 : 서비스 오류 해결을 위한 기술적 목적</t>
-  </si>
-  <si>
-    <t>관련법령 : 소비자의 불만 또는 분쟁처리에 관한 기록 : 3년</t>
-  </si>
-  <si>
     <t>제3조(정보주체와 법정대리인의 권리·의무 및 그 행사방법)</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>제4조(처리하는 개인정보의 항목 작성)</t>
   </si>
   <si>
-    <t>필수항목 : 서비스 이용 기록, 접속 로그</t>
-  </si>
-  <si>
     <t>제5조(개인정보의 파기)</t>
   </si>
   <si>
@@ -152,9 +137,6 @@
     <t>개발자는 개인정보의 안전성 확보를 위해 다음과 같은 조치를 취하고 있습니다.</t>
   </si>
   <si>
-    <t>1.재화 또는 서비스 제공</t>
-  </si>
-  <si>
     <t>TwoGirls(이하 '개발자')는 「개인정보 보호법」 제30조에 따라 정보주체의 개인정보를 보호하고 이와 관련한 고충을 신속하고 원활하게 처리할 수 있도록 하기 위하여 다음과 같이 개인정보 처리방침을 수립·공개합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +144,6 @@
     <t>○ 이 개인정보처리방침은 2021년 12월 24부터 적용됩니다.</t>
   </si>
   <si>
-    <t>재화 또는 서비스 제공과 관련한 개인정보는 수집.이용에 관한 동의일로부터 3년까지 위 이용목적을 위하여 보유.이용됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>① 정보주체는 개발자에 대해 언제든지 개인정보 열람·정정·삭제·처리정지 요구 등의 권리를 행사할 수 있습니다.</t>
   </si>
   <si>
@@ -173,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발자는 해킹이나 컴퓨터 바이러스 등에 의한 개인정보 유출 및 훼손을 막기 위하여 보안프로그램을 설치하고 주기적인 갱신·점검을 하며 외부로부터 접근이 통제된 구역에 시스템을 설치하고 기술적/물리적으로 감시 및 차단하고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개발자는 정보주체의 이용정보를 저장하고 수시로 불러오는 ‘쿠키(cookie)’를 사용하지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 재화 또는 서비스 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성명 : 채두걸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,14 +174,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>② 제1항에 따른 권리 행사는개발자에 대해 「개인정보 보호법」 시행령 제41조제1항에 따라 서면, 전자우편, 모사전송(FAX) 등을 통하여 하실 수 있으며 개발자는 이에 대해 지체 없이 조치하겠습니다.</t>
-  </si>
-  <si>
     <t>① 개발자는 개인정보 처리에 관한 업무를 책임지고, 개인정보 처리와 관련한 정보주체의 불만처리 및 피해구제 등을 위하여 아래와 같이 개인정보 보호책임자를 지정하고 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>② 정보주체께서는 개발자 의 서비스(또는 사업)을 이용하시면서 발생한 모든 개인정보 보호 관련 문의, 불만처리, 피해구제 등에 관한 사항을 개인정보 보호책임자에게 문의하실 수 있습니다. 개발자는 정보주체의 문의에 대해 지체 없이 답변 및 처리해드릴 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>② 제1항에 따른 권리 행사는개발자에 대해 「개인정보 보호법」 시행령 제41조제1항에 따라 전자우편 등을 통하여 하실 수 있으며 개발자는 이에 대해 지체 없이 조치하겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 제공 회사：Google Inc.</t>
+  </si>
+  <si>
+    <t>앱 사용 분석을 통한 앱 사용성 개선을 위해 처리합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Firebase Analytics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 보유 기간 : 사용자 요청 또는 서비스 종료 시까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Google Analytics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이용 목적：앱 사용 분석을 통한 앱 사용성 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수항목 : 개인 식별이 불가능한 형태의 단말기 정보 및 앱 활동 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자는 해킹이나 컴퓨터 바이러스 등에 의한 개인정보 유출 및 훼손을 막기 위하여 주기적인 갱신·점검을 하며 감시 및 차단하고 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +314,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28AAA3-3779-44A1-AE0B-C7506E05E83F}">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -643,17 +648,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -663,7 +668,7 @@
     </row>
     <row r="10" spans="1:1" ht="63" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -671,264 +676,264 @@
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5"/>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>6</v>
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+    <row r="48" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A70" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
+    <row r="77" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A65" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A71" s="6" t="s">
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A73" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A88" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/privacy_policy_counter.xlsx
+++ b/privacy_policy_counter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Desktop\CDK\privacy_policy_counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EAC40-DCF4-46A3-B9A4-49FAD9D97CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748DC13A-86A4-4FEC-9959-D7C160D25DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{301B7B71-B7E9-4C3F-9C79-9DEDFE4FAE7E}"/>
   </bookViews>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28AAA3-3779-44A1-AE0B-C7506E05E83F}">
   <dimension ref="A1:A90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/privacy_policy_counter.xlsx
+++ b/privacy_policy_counter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\Desktop\CDK\privacy_policy_counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748DC13A-86A4-4FEC-9959-D7C160D25DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A2300-EEF0-4EF0-88BF-5DA1E89C4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{301B7B71-B7E9-4C3F-9C79-9DEDFE4FAE7E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>제1조(개인정보의 처리 목적)</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개발자는 정보주체의 이용정보를 저장하고 수시로 불러오는 ‘쿠키(cookie)’를 사용하지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>① 개발자는 개인정보 보유기간의 경과, 처리목적 달성 등 개인정보가 불필요하게 되었을 때에는 지체없이 해당 개인정보를 파기합니다.</t>
   </si>
   <si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Firebase Analytics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 보유 기간 : 사용자 요청 또는 서비스 종료 시까지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +206,19 @@
   </si>
   <si>
     <t>개발자는 해킹이나 컴퓨터 바이러스 등에 의한 개인정보 유출 및 훼손을 막기 위하여 주기적인 갱신·점검을 하며 감시 및 차단하고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>① 개발자는 이용자에게 서비스를 제공하기 위해 이용정보를 저장하고 수시로 불러오는 쿠키(cookie)를 사용합니다.</t>
+  </si>
+  <si>
+    <t>쿠키(cookie)의 사용목적 : Google Analytics</t>
+  </si>
+  <si>
+    <t>쿠키(cookie)의 설치·운영 및 거부 : 옵션 설정을 통해 쿠키(cookie) 저장을 거부할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>② 쿠키(cookie)는 앱을 운영하는데 이용되는 서버가 이용자의 컴퓨터 브라우저에게 보내는 소량의 정보입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,88 +638,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B28AAA3-3779-44A1-AE0B-C7506E05E83F}">
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="120.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="123.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" style="3" customWidth="1"/>
     <col min="3" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="4" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
     </row>
     <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
     </row>
     <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
+      <c r="A22" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -722,217 +725,234 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" ht="42" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A66" s="1" t="s">
+    <row r="69" spans="1:1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A71" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A72" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A80" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="63" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:1" ht="63" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
     </row>
